--- a/Feb'2021/28.02.2021/HD Capital Statement Feb-2021.xlsx
+++ b/Feb'2021/28.02.2021/HD Capital Statement Feb-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="859"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="859" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Hello Daffodils" sheetId="113" r:id="rId1"/>
@@ -620,51 +620,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,18 +635,6 @@
     <xf numFmtId="2" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,9 +646,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -771,6 +711,66 @@
     </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1085,43 +1085,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="19.5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1139,8 +1139,8 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="16"/>
@@ -1187,10 +1187,10 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="26">
         <v>111189</v>
       </c>
       <c r="C9" s="4"/>
@@ -1305,16 +1305,16 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="23"/>
-      <c r="B17" s="42"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="29">
         <f>B10-B13-B14-B15-B16</f>
         <v>-8853.1389999999956</v>
       </c>
@@ -1351,11 +1351,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10"/>
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1394,148 +1394,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" ht="21" thickBot="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="31">
         <v>300000</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="33">
         <v>2000000</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
     </row>
     <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="35">
         <v>59996.861000000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="37">
         <v>111189</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="41">
         <f>B7+B6</f>
         <v>171185.861</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="44">
         <v>57889</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="44">
         <v>37500</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="66">
-        <v>37500</v>
+      <c r="B13" s="46">
+        <v>31500</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="48">
         <v>47150</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="50">
         <f>B14+B13+B12+B11</f>
-        <v>180039</v>
+        <v>174039</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="52">
         <f>B9-B15</f>
-        <v>-8853.1389999999956</v>
+        <v>-2853.1389999999956</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="54">
         <f>B4+B9-B15</f>
-        <v>1991146.861</v>
+        <v>1997146.861</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="56"/>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="54">
         <f>B19-B20</f>
-        <v>1991146.861</v>
+        <v>1997146.861</v>
       </c>
     </row>
   </sheetData>

--- a/Feb'2021/28.02.2021/HD Capital Statement Feb-2021.xlsx
+++ b/Feb'2021/28.02.2021/HD Capital Statement Feb-2021.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="859" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="Capital Hello Daffodils" sheetId="113" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="115" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -125,11 +125,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -548,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,6 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -779,6 +780,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -857,6 +863,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -891,6 +898,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1066,14 +1074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -1084,7 +1092,7 @@
     <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1102,7 @@
       <c r="E1" s="60"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="19.5">
+    <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1112,7 @@
       <c r="E2" s="63"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
         <v>20</v>
       </c>
@@ -1114,7 +1122,7 @@
       <c r="E3" s="66"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="67" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1135,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1138,7 +1146,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="70"/>
       <c r="B6" s="71"/>
       <c r="C6" s="24"/>
@@ -1148,7 +1156,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1167,7 +1175,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1186,7 +1194,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
@@ -1205,7 +1213,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1233,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="12"/>
       <c r="C11" s="4"/>
@@ -1236,7 +1244,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="1"/>
@@ -1246,7 +1254,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1272,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1292,7 +1300,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1303,14 +1311,14 @@
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="27"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>1</v>
       </c>
@@ -1322,14 +1330,14 @@
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1">
+    <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>5</v>
       </c>
@@ -1350,14 +1358,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="23.25">
+    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="57"/>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1380,32 +1388,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" thickBot="1">
+    <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="73"/>
     </row>
-    <row r="2" spans="1:2" ht="21" thickBot="1">
+    <row r="2" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="75"/>
     </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
@@ -1413,7 +1422,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>25</v>
       </c>
@@ -1421,11 +1430,11 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76"/>
       <c r="B5" s="76"/>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>26</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>59996.861000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>27</v>
       </c>
@@ -1441,11 +1450,11 @@
         <v>111189</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="39"/>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>28</v>
       </c>
@@ -1454,19 +1463,23 @@
         <v>171185.861</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="43"/>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="44">
         <v>57889</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="D11" s="77">
+        <f>B11+B14</f>
+        <v>105039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>8</v>
       </c>
@@ -1474,7 +1487,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>30</v>
       </c>
@@ -1482,7 +1495,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>19</v>
       </c>
@@ -1490,7 +1503,7 @@
         <v>47150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>31</v>
       </c>
@@ -1499,11 +1512,11 @@
         <v>174039</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76"/>
       <c r="B16" s="76"/>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>32</v>
       </c>
@@ -1512,11 +1525,11 @@
         <v>-2853.1389999999956</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
       <c r="B18" s="76"/>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>33</v>
       </c>
@@ -1525,11 +1538,11 @@
         <v>1997146.861</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="56"/>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>34</v>
       </c>
